--- a/data/output/FV2304_FV2210/INVOIC/31002.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5324" uniqueCount="448">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5345" uniqueCount="448">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1526,6 +1526,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U245" totalsRowShown="0">
+  <autoFilter ref="A1:U245"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1815,7 +1845,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13247,5 +13280,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/INVOIC/31002.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6316" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6092" uniqueCount="674">
   <si>
     <t>#</t>
   </si>
@@ -8489,48 +8489,46 @@
       <c r="V122" s="11"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5" t="s">
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M123" s="5" t="s">
+      <c r="K123" s="2"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N123" s="5" t="s">
+      <c r="N123" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O123" s="5" t="s">
+      <c r="O123" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5"/>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
-      <c r="U123" s="5" t="s">
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V123" s="5"/>
+      <c r="V123" s="2"/>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="5" t="s">
@@ -8560,9 +8558,7 @@
         <v>359</v>
       </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>41</v>
       </c>
@@ -8616,9 +8612,7 @@
       <c r="K125" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="L125" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>41</v>
       </c>
@@ -8645,48 +8639,46 @@
       </c>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5" t="s">
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M126" s="5" t="s">
+      <c r="K126" s="2"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N126" s="5" t="s">
+      <c r="N126" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O126" s="5" t="s">
+      <c r="O126" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
-      <c r="S126" s="5"/>
-      <c r="T126" s="5"/>
-      <c r="U126" s="5" t="s">
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V126" s="5"/>
+      <c r="V126" s="2"/>
     </row>
     <row r="127" spans="1:22">
       <c r="A127" s="5" t="s">
@@ -8716,9 +8708,7 @@
         <v>359</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>42</v>
       </c>
@@ -8772,9 +8762,7 @@
         <v>359</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>42</v>
       </c>
@@ -8828,9 +8816,7 @@
         <v>359</v>
       </c>
       <c r="K129" s="5"/>
-      <c r="L129" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L129" s="4"/>
       <c r="M129" s="5" t="s">
         <v>42</v>
       </c>
@@ -8857,48 +8843,46 @@
       <c r="V129" s="5"/>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5" t="s">
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M130" s="5" t="s">
+      <c r="K130" s="2"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N130" s="5" t="s">
+      <c r="N130" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O130" s="5" t="s">
+      <c r="O130" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5"/>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
-      <c r="T130" s="5"/>
-      <c r="U130" s="5" t="s">
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V130" s="5"/>
+      <c r="V130" s="2"/>
     </row>
     <row r="131" spans="1:22">
       <c r="A131" s="5" t="s">
@@ -8928,9 +8912,7 @@
         <v>359</v>
       </c>
       <c r="K131" s="5"/>
-      <c r="L131" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>43</v>
       </c>
@@ -8957,48 +8939,46 @@
       <c r="V131" s="5"/>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5" t="s">
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K132" s="5"/>
-      <c r="L132" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M132" s="5" t="s">
+      <c r="K132" s="2"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N132" s="5" t="s">
+      <c r="N132" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O132" s="5" t="s">
+      <c r="O132" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P132" s="5"/>
-      <c r="Q132" s="5"/>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
-      <c r="U132" s="5" t="s">
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V132" s="5"/>
+      <c r="V132" s="2"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="5" t="s">
@@ -9028,9 +9008,7 @@
         <v>359</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>44</v>
       </c>
@@ -9140,9 +9118,7 @@
         <v>359</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>44</v>
       </c>
@@ -9169,48 +9145,46 @@
       <c r="V135" s="5"/>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5" t="s">
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M136" s="5" t="s">
+      <c r="K136" s="2"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N136" s="5" t="s">
+      <c r="N136" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O136" s="5" t="s">
+      <c r="O136" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P136" s="5"/>
-      <c r="Q136" s="5"/>
-      <c r="R136" s="5"/>
-      <c r="S136" s="5"/>
-      <c r="T136" s="5"/>
-      <c r="U136" s="5" t="s">
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
+      <c r="U136" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V136" s="5"/>
+      <c r="V136" s="2"/>
     </row>
     <row r="137" spans="1:22">
       <c r="A137" s="5" t="s">
@@ -9240,9 +9214,7 @@
       <c r="K137" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="L137" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L137" s="4"/>
       <c r="M137" s="5" t="s">
         <v>45</v>
       </c>
@@ -9296,9 +9268,7 @@
       <c r="K138" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="L138" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L138" s="4"/>
       <c r="M138" s="5" t="s">
         <v>45</v>
       </c>
@@ -9352,9 +9322,7 @@
         <v>377</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>45</v>
       </c>
@@ -9441,48 +9409,46 @@
       </c>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5" t="s">
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M141" s="5" t="s">
+      <c r="K141" s="2"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N141" s="5" t="s">
+      <c r="N141" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O141" s="5" t="s">
+      <c r="O141" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5" t="s">
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V141" s="5"/>
+      <c r="V141" s="2"/>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="5" t="s">
@@ -9512,9 +9478,7 @@
         <v>359</v>
       </c>
       <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L142" s="4"/>
       <c r="M142" s="5" t="s">
         <v>46</v>
       </c>
@@ -9568,9 +9532,7 @@
       <c r="K143" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="L143" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>46</v>
       </c>
@@ -9624,9 +9586,7 @@
         <v>359</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>46</v>
       </c>
@@ -9680,9 +9640,7 @@
         <v>359</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>46</v>
       </c>
@@ -9881,50 +9839,48 @@
       </c>
     </row>
     <row r="149" spans="1:22">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5" t="s">
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="K149" s="5" t="s">
+      <c r="K149" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="L149" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M149" s="5" t="s">
+      <c r="L149" s="4"/>
+      <c r="M149" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N149" s="5" t="s">
+      <c r="N149" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O149" s="5" t="s">
+      <c r="O149" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P149" s="5"/>
-      <c r="Q149" s="5"/>
-      <c r="R149" s="5"/>
-      <c r="S149" s="5"/>
-      <c r="T149" s="5"/>
-      <c r="U149" s="5" t="s">
+      <c r="P149" s="2"/>
+      <c r="Q149" s="2"/>
+      <c r="R149" s="2"/>
+      <c r="S149" s="2"/>
+      <c r="T149" s="2"/>
+      <c r="U149" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="V149" s="5" t="s">
+      <c r="V149" s="2" t="s">
         <v>411</v>
       </c>
     </row>
@@ -9956,9 +9912,7 @@
         <v>359</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>47</v>
       </c>
@@ -10012,9 +9966,7 @@
       <c r="K151" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="L151" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>47</v>
       </c>
@@ -10068,9 +10020,7 @@
         <v>359</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>47</v>
       </c>
@@ -10213,50 +10163,48 @@
       </c>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5" t="s">
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K155" s="5" t="s">
+      <c r="K155" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="L155" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M155" s="5" t="s">
+      <c r="L155" s="4"/>
+      <c r="M155" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N155" s="5" t="s">
+      <c r="N155" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O155" s="5" t="s">
+      <c r="O155" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-      <c r="U155" s="5" t="s">
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V155" s="5" t="s">
+      <c r="V155" s="2" t="s">
         <v>414</v>
       </c>
     </row>
@@ -10288,9 +10236,7 @@
         <v>359</v>
       </c>
       <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>48</v>
       </c>
@@ -10342,9 +10288,7 @@
         <v>361</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>48</v>
       </c>
@@ -10396,9 +10340,7 @@
         <v>359</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>48</v>
       </c>
@@ -10425,50 +10367,48 @@
       <c r="V158" s="5"/>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5" t="s">
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K159" s="5" t="s">
+      <c r="K159" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="L159" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M159" s="5" t="s">
+      <c r="L159" s="4"/>
+      <c r="M159" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N159" s="5" t="s">
+      <c r="N159" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O159" s="5" t="s">
+      <c r="O159" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
-      <c r="T159" s="5"/>
-      <c r="U159" s="5" t="s">
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V159" s="5" t="s">
+      <c r="V159" s="2" t="s">
         <v>414</v>
       </c>
     </row>
@@ -10500,9 +10440,7 @@
         <v>359</v>
       </c>
       <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>49</v>
       </c>
@@ -10554,9 +10492,7 @@
         <v>361</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>49</v>
       </c>
@@ -10608,9 +10544,7 @@
         <v>359</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>49</v>
       </c>
@@ -10637,48 +10571,46 @@
       <c r="V162" s="5"/>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5" t="s">
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M163" s="5" t="s">
+      <c r="K163" s="2"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N163" s="5" t="s">
+      <c r="N163" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O163" s="5" t="s">
+      <c r="O163" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P163" s="5"/>
-      <c r="Q163" s="5"/>
-      <c r="R163" s="5"/>
-      <c r="S163" s="5"/>
-      <c r="T163" s="5"/>
-      <c r="U163" s="5" t="s">
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V163" s="5"/>
+      <c r="V163" s="2"/>
     </row>
     <row r="164" spans="1:22">
       <c r="A164" s="5" t="s">
@@ -10708,9 +10640,7 @@
         <v>359</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>50</v>
       </c>
@@ -10764,9 +10694,7 @@
       <c r="K165" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="L165" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>50</v>
       </c>
@@ -10793,48 +10721,46 @@
       </c>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5" t="s">
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M166" s="5" t="s">
+      <c r="K166" s="2"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N166" s="5" t="s">
+      <c r="N166" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O166" s="5" t="s">
+      <c r="O166" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5"/>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
-      <c r="U166" s="5" t="s">
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V166" s="5"/>
+      <c r="V166" s="2"/>
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="5" t="s">
@@ -10864,9 +10790,7 @@
         <v>359</v>
       </c>
       <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>51</v>
       </c>
@@ -10920,9 +10844,7 @@
       <c r="K168" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="L168" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>51</v>
       </c>
@@ -10949,48 +10871,46 @@
       </c>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5" t="s">
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M169" s="5" t="s">
+      <c r="K169" s="2"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N169" s="5" t="s">
+      <c r="N169" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O169" s="5" t="s">
+      <c r="O169" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P169" s="5"/>
-      <c r="Q169" s="5"/>
-      <c r="R169" s="5"/>
-      <c r="S169" s="5"/>
-      <c r="T169" s="5"/>
-      <c r="U169" s="5" t="s">
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V169" s="5"/>
+      <c r="V169" s="2"/>
     </row>
     <row r="170" spans="1:22">
       <c r="A170" s="5" t="s">
@@ -11020,9 +10940,7 @@
         <v>359</v>
       </c>
       <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>52</v>
       </c>
@@ -11076,9 +10994,7 @@
       <c r="K171" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="L171" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>52</v>
       </c>
@@ -11132,9 +11048,7 @@
         <v>386</v>
       </c>
       <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>52</v>
       </c>
@@ -11277,48 +11191,46 @@
       </c>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5" t="s">
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M175" s="5" t="s">
+      <c r="K175" s="2"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N175" s="5" t="s">
+      <c r="N175" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O175" s="5" t="s">
+      <c r="O175" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="P175" s="5"/>
-      <c r="Q175" s="5"/>
-      <c r="R175" s="5"/>
-      <c r="S175" s="5"/>
-      <c r="T175" s="5"/>
-      <c r="U175" s="5" t="s">
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V175" s="5"/>
+      <c r="V175" s="2"/>
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="5" t="s">
@@ -11348,9 +11260,7 @@
         <v>359</v>
       </c>
       <c r="K176" s="5"/>
-      <c r="L176" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>53</v>
       </c>
@@ -11404,9 +11314,7 @@
         <v>359</v>
       </c>
       <c r="K177" s="5"/>
-      <c r="L177" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L177" s="4"/>
       <c r="M177" s="5" t="s">
         <v>53</v>
       </c>
@@ -11460,9 +11368,7 @@
       <c r="K178" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="L178" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L178" s="4"/>
       <c r="M178" s="5" t="s">
         <v>53</v>
       </c>
@@ -11516,9 +11422,7 @@
         <v>359</v>
       </c>
       <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>53</v>
       </c>
@@ -11572,9 +11476,7 @@
         <v>359</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>53</v>
       </c>
@@ -11628,9 +11530,7 @@
         <v>359</v>
       </c>
       <c r="K181" s="5"/>
-      <c r="L181" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L181" s="4"/>
       <c r="M181" s="5" t="s">
         <v>53</v>
       </c>
@@ -11657,48 +11557,46 @@
       <c r="V181" s="5"/>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C182" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5" t="s">
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M182" s="5" t="s">
+      <c r="K182" s="2"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N182" s="5" t="s">
+      <c r="N182" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O182" s="5" t="s">
+      <c r="O182" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P182" s="5"/>
-      <c r="Q182" s="5"/>
-      <c r="R182" s="5"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
-      <c r="U182" s="5" t="s">
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V182" s="5"/>
+      <c r="V182" s="2"/>
     </row>
     <row r="183" spans="1:22">
       <c r="A183" s="5" t="s">
@@ -11728,9 +11626,7 @@
         <v>359</v>
       </c>
       <c r="K183" s="5"/>
-      <c r="L183" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>54</v>
       </c>
@@ -11784,9 +11680,7 @@
         <v>359</v>
       </c>
       <c r="K184" s="5"/>
-      <c r="L184" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L184" s="4"/>
       <c r="M184" s="5" t="s">
         <v>54</v>
       </c>
@@ -11840,9 +11734,7 @@
         <v>359</v>
       </c>
       <c r="K185" s="5"/>
-      <c r="L185" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>54</v>
       </c>
@@ -11869,48 +11761,46 @@
       <c r="V185" s="5"/>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5" t="s">
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K186" s="5"/>
-      <c r="L186" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M186" s="5" t="s">
+      <c r="K186" s="2"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N186" s="5" t="s">
+      <c r="N186" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O186" s="5" t="s">
+      <c r="O186" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="P186" s="5"/>
-      <c r="Q186" s="5"/>
-      <c r="R186" s="5"/>
-      <c r="S186" s="5"/>
-      <c r="T186" s="5"/>
-      <c r="U186" s="5" t="s">
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+      <c r="U186" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V186" s="5"/>
+      <c r="V186" s="2"/>
     </row>
     <row r="187" spans="1:22">
       <c r="A187" s="5" t="s">
@@ -11940,9 +11830,7 @@
         <v>359</v>
       </c>
       <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>55</v>
       </c>
@@ -11996,9 +11884,7 @@
       <c r="K188" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="L188" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>55</v>
       </c>
@@ -12025,48 +11911,46 @@
       </c>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5" t="s">
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M189" s="5" t="s">
+      <c r="K189" s="2"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N189" s="5" t="s">
+      <c r="N189" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O189" s="5" t="s">
+      <c r="O189" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P189" s="5"/>
-      <c r="Q189" s="5"/>
-      <c r="R189" s="5"/>
-      <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
-      <c r="U189" s="5" t="s">
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+      <c r="U189" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V189" s="5"/>
+      <c r="V189" s="2"/>
     </row>
     <row r="190" spans="1:22">
       <c r="A190" s="5" t="s">
@@ -12096,9 +11980,7 @@
         <v>359</v>
       </c>
       <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>56</v>
       </c>
@@ -12152,9 +12034,7 @@
       <c r="K191" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="L191" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L191" s="4"/>
       <c r="M191" s="5" t="s">
         <v>56</v>
       </c>
@@ -12181,48 +12061,46 @@
       </c>
     </row>
     <row r="192" spans="1:22">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="5"/>
-      <c r="J192" s="5" t="s">
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K192" s="5"/>
-      <c r="L192" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M192" s="5" t="s">
+      <c r="K192" s="2"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N192" s="5" t="s">
+      <c r="N192" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O192" s="5" t="s">
+      <c r="O192" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P192" s="5"/>
-      <c r="Q192" s="5"/>
-      <c r="R192" s="5"/>
-      <c r="S192" s="5"/>
-      <c r="T192" s="5"/>
-      <c r="U192" s="5" t="s">
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V192" s="5"/>
+      <c r="V192" s="2"/>
     </row>
     <row r="193" spans="1:22">
       <c r="A193" s="5" t="s">
@@ -12252,9 +12130,7 @@
         <v>359</v>
       </c>
       <c r="K193" s="5"/>
-      <c r="L193" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L193" s="4"/>
       <c r="M193" s="5" t="s">
         <v>57</v>
       </c>
@@ -12308,9 +12184,7 @@
       <c r="K194" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="L194" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L194" s="4"/>
       <c r="M194" s="5" t="s">
         <v>57</v>
       </c>
@@ -12337,48 +12211,46 @@
       </c>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C195" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D195" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5" t="s">
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K195" s="5"/>
-      <c r="L195" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M195" s="5" t="s">
+      <c r="K195" s="2"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N195" s="5" t="s">
+      <c r="N195" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O195" s="5" t="s">
+      <c r="O195" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P195" s="5"/>
-      <c r="Q195" s="5"/>
-      <c r="R195" s="5"/>
-      <c r="S195" s="5"/>
-      <c r="T195" s="5"/>
-      <c r="U195" s="5" t="s">
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V195" s="5"/>
+      <c r="V195" s="2"/>
     </row>
     <row r="196" spans="1:22">
       <c r="A196" s="5" t="s">
@@ -12408,9 +12280,7 @@
         <v>359</v>
       </c>
       <c r="K196" s="5"/>
-      <c r="L196" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L196" s="4"/>
       <c r="M196" s="5" t="s">
         <v>58</v>
       </c>
@@ -12464,9 +12334,7 @@
         <v>392</v>
       </c>
       <c r="K197" s="5"/>
-      <c r="L197" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L197" s="4"/>
       <c r="M197" s="5" t="s">
         <v>58</v>
       </c>
@@ -12520,9 +12388,7 @@
         <v>359</v>
       </c>
       <c r="K198" s="5"/>
-      <c r="L198" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L198" s="4"/>
       <c r="M198" s="5" t="s">
         <v>58</v>
       </c>
@@ -12578,9 +12444,7 @@
       <c r="K199" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="L199" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L199" s="4"/>
       <c r="M199" s="5" t="s">
         <v>58</v>
       </c>
@@ -12609,48 +12473,46 @@
       </c>
     </row>
     <row r="200" spans="1:22">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D200" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5" t="s">
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K200" s="5"/>
-      <c r="L200" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M200" s="5" t="s">
+      <c r="K200" s="2"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N200" s="5" t="s">
+      <c r="N200" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O200" s="5" t="s">
+      <c r="O200" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="P200" s="5"/>
-      <c r="Q200" s="5"/>
-      <c r="R200" s="5"/>
-      <c r="S200" s="5"/>
-      <c r="T200" s="5"/>
-      <c r="U200" s="5" t="s">
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V200" s="5"/>
+      <c r="V200" s="2"/>
     </row>
     <row r="201" spans="1:22">
       <c r="A201" s="5" t="s">
@@ -12680,9 +12542,7 @@
         <v>359</v>
       </c>
       <c r="K201" s="5"/>
-      <c r="L201" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L201" s="4"/>
       <c r="M201" s="5" t="s">
         <v>59</v>
       </c>
@@ -12736,9 +12596,7 @@
       <c r="K202" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="L202" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L202" s="4"/>
       <c r="M202" s="5" t="s">
         <v>59</v>
       </c>
@@ -12765,44 +12623,42 @@
       </c>
     </row>
     <row r="203" spans="1:22">
-      <c r="A203" s="5" t="s">
+      <c r="A203" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5" t="s">
+      <c r="C203" s="2"/>
+      <c r="D203" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="5" t="s">
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K203" s="5"/>
-      <c r="L203" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M203" s="5" t="s">
+      <c r="K203" s="2"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N203" s="5"/>
-      <c r="O203" s="5" t="s">
+      <c r="N203" s="2"/>
+      <c r="O203" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P203" s="5"/>
-      <c r="Q203" s="5"/>
-      <c r="R203" s="5"/>
-      <c r="S203" s="5"/>
-      <c r="T203" s="5"/>
-      <c r="U203" s="5" t="s">
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
+      <c r="U203" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V203" s="5"/>
+      <c r="V203" s="2"/>
     </row>
     <row r="204" spans="1:22">
       <c r="A204" s="5" t="s">
@@ -12830,9 +12686,7 @@
         <v>359</v>
       </c>
       <c r="K204" s="5"/>
-      <c r="L204" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L204" s="4"/>
       <c r="M204" s="5" t="s">
         <v>60</v>
       </c>
@@ -12857,48 +12711,46 @@
       <c r="V204" s="5"/>
     </row>
     <row r="205" spans="1:22">
-      <c r="A205" s="5" t="s">
+      <c r="A205" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B205" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C205" s="5" t="s">
+      <c r="C205" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="D205" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
-      <c r="J205" s="5" t="s">
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K205" s="5"/>
-      <c r="L205" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M205" s="5" t="s">
+      <c r="K205" s="2"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N205" s="5" t="s">
+      <c r="N205" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O205" s="5" t="s">
+      <c r="O205" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P205" s="5"/>
-      <c r="Q205" s="5"/>
-      <c r="R205" s="5"/>
-      <c r="S205" s="5"/>
-      <c r="T205" s="5"/>
-      <c r="U205" s="5" t="s">
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2"/>
+      <c r="R205" s="2"/>
+      <c r="S205" s="2"/>
+      <c r="T205" s="2"/>
+      <c r="U205" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V205" s="5"/>
+      <c r="V205" s="2"/>
     </row>
     <row r="206" spans="1:22">
       <c r="A206" s="5" t="s">
@@ -12928,9 +12780,7 @@
         <v>359</v>
       </c>
       <c r="K206" s="5"/>
-      <c r="L206" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L206" s="4"/>
       <c r="M206" s="5" t="s">
         <v>61</v>
       </c>
@@ -12984,9 +12834,7 @@
       <c r="K207" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="L207" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L207" s="4"/>
       <c r="M207" s="5" t="s">
         <v>61</v>
       </c>
@@ -13013,48 +12861,46 @@
       </c>
     </row>
     <row r="208" spans="1:22">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C208" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="D208" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="5" t="s">
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K208" s="5"/>
-      <c r="L208" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M208" s="5" t="s">
+      <c r="K208" s="2"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N208" s="5" t="s">
+      <c r="N208" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O208" s="5" t="s">
+      <c r="O208" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P208" s="5"/>
-      <c r="Q208" s="5"/>
-      <c r="R208" s="5"/>
-      <c r="S208" s="5"/>
-      <c r="T208" s="5"/>
-      <c r="U208" s="5" t="s">
+      <c r="P208" s="2"/>
+      <c r="Q208" s="2"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V208" s="5"/>
+      <c r="V208" s="2"/>
     </row>
     <row r="209" spans="1:22">
       <c r="A209" s="5" t="s">
@@ -13084,9 +12930,7 @@
         <v>359</v>
       </c>
       <c r="K209" s="5"/>
-      <c r="L209" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L209" s="4"/>
       <c r="M209" s="5" t="s">
         <v>62</v>
       </c>
@@ -13140,9 +12984,7 @@
       <c r="K210" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="L210" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L210" s="4"/>
       <c r="M210" s="5" t="s">
         <v>62</v>
       </c>
@@ -13169,48 +13011,46 @@
       </c>
     </row>
     <row r="211" spans="1:22">
-      <c r="A211" s="5" t="s">
+      <c r="A211" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C211" s="5" t="s">
+      <c r="C211" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D211" s="5" t="s">
+      <c r="D211" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="5"/>
-      <c r="J211" s="5" t="s">
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K211" s="5"/>
-      <c r="L211" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M211" s="5" t="s">
+      <c r="K211" s="2"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N211" s="5" t="s">
+      <c r="N211" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O211" s="5" t="s">
+      <c r="O211" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P211" s="5"/>
-      <c r="Q211" s="5"/>
-      <c r="R211" s="5"/>
-      <c r="S211" s="5"/>
-      <c r="T211" s="5"/>
-      <c r="U211" s="5" t="s">
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+      <c r="R211" s="2"/>
+      <c r="S211" s="2"/>
+      <c r="T211" s="2"/>
+      <c r="U211" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V211" s="5"/>
+      <c r="V211" s="2"/>
     </row>
     <row r="212" spans="1:22">
       <c r="A212" s="5" t="s">
@@ -13240,9 +13080,7 @@
         <v>359</v>
       </c>
       <c r="K212" s="5"/>
-      <c r="L212" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L212" s="4"/>
       <c r="M212" s="5" t="s">
         <v>63</v>
       </c>
@@ -13294,9 +13132,7 @@
         <v>359</v>
       </c>
       <c r="K213" s="5"/>
-      <c r="L213" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L213" s="4"/>
       <c r="M213" s="5" t="s">
         <v>63</v>
       </c>
@@ -13321,48 +13157,46 @@
       <c r="V213" s="5"/>
     </row>
     <row r="214" spans="1:22">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C214" s="5" t="s">
+      <c r="C214" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D214" s="5" t="s">
+      <c r="D214" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="5"/>
-      <c r="J214" s="5" t="s">
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K214" s="5"/>
-      <c r="L214" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M214" s="5" t="s">
+      <c r="K214" s="2"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N214" s="5" t="s">
+      <c r="N214" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O214" s="5" t="s">
+      <c r="O214" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P214" s="5"/>
-      <c r="Q214" s="5"/>
-      <c r="R214" s="5"/>
-      <c r="S214" s="5"/>
-      <c r="T214" s="5"/>
-      <c r="U214" s="5" t="s">
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
+      <c r="T214" s="2"/>
+      <c r="U214" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V214" s="5"/>
+      <c r="V214" s="2"/>
     </row>
     <row r="215" spans="1:22">
       <c r="A215" s="5" t="s">
@@ -13392,9 +13226,7 @@
         <v>359</v>
       </c>
       <c r="K215" s="5"/>
-      <c r="L215" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L215" s="4"/>
       <c r="M215" s="5" t="s">
         <v>64</v>
       </c>
@@ -13446,9 +13278,7 @@
         <v>359</v>
       </c>
       <c r="K216" s="5"/>
-      <c r="L216" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L216" s="4"/>
       <c r="M216" s="5" t="s">
         <v>64</v>
       </c>
@@ -13500,9 +13330,7 @@
         <v>359</v>
       </c>
       <c r="K217" s="5"/>
-      <c r="L217" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L217" s="4"/>
       <c r="M217" s="5" t="s">
         <v>64</v>
       </c>
@@ -13529,48 +13357,46 @@
       <c r="V217" s="5"/>
     </row>
     <row r="218" spans="1:22">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C218" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="D218" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5" t="s">
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K218" s="5"/>
-      <c r="L218" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M218" s="5" t="s">
+      <c r="K218" s="2"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N218" s="5" t="s">
+      <c r="N218" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O218" s="5" t="s">
+      <c r="O218" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P218" s="5"/>
-      <c r="Q218" s="5"/>
-      <c r="R218" s="5"/>
-      <c r="S218" s="5"/>
-      <c r="T218" s="5"/>
-      <c r="U218" s="5" t="s">
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V218" s="5"/>
+      <c r="V218" s="2"/>
     </row>
     <row r="219" spans="1:22">
       <c r="A219" s="5" t="s">
@@ -13600,9 +13426,7 @@
         <v>359</v>
       </c>
       <c r="K219" s="5"/>
-      <c r="L219" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L219" s="4"/>
       <c r="M219" s="5" t="s">
         <v>65</v>
       </c>
@@ -13656,9 +13480,7 @@
       <c r="K220" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="L220" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L220" s="4"/>
       <c r="M220" s="5" t="s">
         <v>65</v>
       </c>
@@ -13685,48 +13507,46 @@
       </c>
     </row>
     <row r="221" spans="1:22">
-      <c r="A221" s="5" t="s">
+      <c r="A221" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B221" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C221" s="5" t="s">
+      <c r="C221" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D221" s="5" t="s">
+      <c r="D221" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="5"/>
-      <c r="H221" s="5"/>
-      <c r="I221" s="5"/>
-      <c r="J221" s="5" t="s">
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K221" s="5"/>
-      <c r="L221" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M221" s="5" t="s">
+      <c r="K221" s="2"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N221" s="5" t="s">
+      <c r="N221" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O221" s="5" t="s">
+      <c r="O221" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P221" s="5"/>
-      <c r="Q221" s="5"/>
-      <c r="R221" s="5"/>
-      <c r="S221" s="5"/>
-      <c r="T221" s="5"/>
-      <c r="U221" s="5" t="s">
+      <c r="P221" s="2"/>
+      <c r="Q221" s="2"/>
+      <c r="R221" s="2"/>
+      <c r="S221" s="2"/>
+      <c r="T221" s="2"/>
+      <c r="U221" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V221" s="5"/>
+      <c r="V221" s="2"/>
     </row>
     <row r="222" spans="1:22">
       <c r="A222" s="5" t="s">
@@ -13756,9 +13576,7 @@
         <v>359</v>
       </c>
       <c r="K222" s="5"/>
-      <c r="L222" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L222" s="4"/>
       <c r="M222" s="5" t="s">
         <v>66</v>
       </c>
@@ -13812,9 +13630,7 @@
       <c r="K223" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="L223" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L223" s="4"/>
       <c r="M223" s="5" t="s">
         <v>66</v>
       </c>
@@ -13841,48 +13657,46 @@
       </c>
     </row>
     <row r="224" spans="1:22">
-      <c r="A224" s="5" t="s">
+      <c r="A224" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C224" s="5" t="s">
+      <c r="C224" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D224" s="5" t="s">
+      <c r="D224" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E224" s="5"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="5"/>
-      <c r="H224" s="5"/>
-      <c r="I224" s="5"/>
-      <c r="J224" s="5" t="s">
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K224" s="5"/>
-      <c r="L224" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M224" s="5" t="s">
+      <c r="K224" s="2"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N224" s="5" t="s">
+      <c r="N224" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O224" s="5" t="s">
+      <c r="O224" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="P224" s="5"/>
-      <c r="Q224" s="5"/>
-      <c r="R224" s="5"/>
-      <c r="S224" s="5"/>
-      <c r="T224" s="5"/>
-      <c r="U224" s="5" t="s">
+      <c r="P224" s="2"/>
+      <c r="Q224" s="2"/>
+      <c r="R224" s="2"/>
+      <c r="S224" s="2"/>
+      <c r="T224" s="2"/>
+      <c r="U224" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V224" s="5"/>
+      <c r="V224" s="2"/>
     </row>
     <row r="225" spans="1:22">
       <c r="A225" s="5" t="s">
@@ -13912,9 +13726,7 @@
         <v>359</v>
       </c>
       <c r="K225" s="5"/>
-      <c r="L225" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L225" s="4"/>
       <c r="M225" s="5" t="s">
         <v>67</v>
       </c>
@@ -13968,9 +13780,7 @@
         <v>359</v>
       </c>
       <c r="K226" s="5"/>
-      <c r="L226" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L226" s="4"/>
       <c r="M226" s="5" t="s">
         <v>67</v>
       </c>
@@ -14024,9 +13834,7 @@
       <c r="K227" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="L227" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L227" s="4"/>
       <c r="M227" s="5" t="s">
         <v>67</v>
       </c>
@@ -14080,9 +13888,7 @@
         <v>359</v>
       </c>
       <c r="K228" s="5"/>
-      <c r="L228" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L228" s="4"/>
       <c r="M228" s="5" t="s">
         <v>67</v>
       </c>
@@ -14136,9 +13942,7 @@
         <v>359</v>
       </c>
       <c r="K229" s="5"/>
-      <c r="L229" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L229" s="4"/>
       <c r="M229" s="5" t="s">
         <v>67</v>
       </c>
@@ -14192,9 +13996,7 @@
         <v>359</v>
       </c>
       <c r="K230" s="5"/>
-      <c r="L230" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L230" s="4"/>
       <c r="M230" s="5" t="s">
         <v>67</v>
       </c>
@@ -14221,50 +14023,48 @@
       <c r="V230" s="5"/>
     </row>
     <row r="231" spans="1:22">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C231" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D231" s="5" t="s">
+      <c r="D231" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="5"/>
-      <c r="H231" s="5"/>
-      <c r="I231" s="5"/>
-      <c r="J231" s="5" t="s">
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="K231" s="5" t="s">
+      <c r="K231" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="L231" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M231" s="5" t="s">
+      <c r="L231" s="4"/>
+      <c r="M231" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N231" s="5" t="s">
+      <c r="N231" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O231" s="5" t="s">
+      <c r="O231" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P231" s="5"/>
-      <c r="Q231" s="5"/>
-      <c r="R231" s="5"/>
-      <c r="S231" s="5"/>
-      <c r="T231" s="5"/>
-      <c r="U231" s="5" t="s">
+      <c r="P231" s="2"/>
+      <c r="Q231" s="2"/>
+      <c r="R231" s="2"/>
+      <c r="S231" s="2"/>
+      <c r="T231" s="2"/>
+      <c r="U231" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="V231" s="5" t="s">
+      <c r="V231" s="2" t="s">
         <v>423</v>
       </c>
     </row>
@@ -14296,9 +14096,7 @@
         <v>359</v>
       </c>
       <c r="K232" s="5"/>
-      <c r="L232" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L232" s="4"/>
       <c r="M232" s="5" t="s">
         <v>68</v>
       </c>
@@ -14352,9 +14150,7 @@
       <c r="K233" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="L233" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L233" s="4"/>
       <c r="M233" s="5" t="s">
         <v>68</v>
       </c>
@@ -14456,9 +14252,7 @@
         <v>359</v>
       </c>
       <c r="K235" s="5"/>
-      <c r="L235" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L235" s="4"/>
       <c r="M235" s="5" t="s">
         <v>69</v>
       </c>
@@ -14512,9 +14306,7 @@
       <c r="K236" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="L236" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L236" s="4"/>
       <c r="M236" s="5" t="s">
         <v>69</v>
       </c>
@@ -14541,48 +14333,46 @@
       </c>
     </row>
     <row r="237" spans="1:22">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="C237" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D237" s="5" t="s">
+      <c r="D237" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="5" t="s">
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K237" s="5"/>
-      <c r="L237" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M237" s="5" t="s">
+      <c r="K237" s="2"/>
+      <c r="L237" s="4"/>
+      <c r="M237" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N237" s="5" t="s">
+      <c r="N237" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O237" s="5" t="s">
+      <c r="O237" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P237" s="5"/>
-      <c r="Q237" s="5"/>
-      <c r="R237" s="5"/>
-      <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
-      <c r="U237" s="5" t="s">
+      <c r="P237" s="2"/>
+      <c r="Q237" s="2"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V237" s="5"/>
+      <c r="V237" s="2"/>
     </row>
     <row r="238" spans="1:22">
       <c r="A238" s="5" t="s">
@@ -14612,9 +14402,7 @@
         <v>359</v>
       </c>
       <c r="K238" s="5"/>
-      <c r="L238" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L238" s="4"/>
       <c r="M238" s="5" t="s">
         <v>70</v>
       </c>
@@ -14668,9 +14456,7 @@
       <c r="K239" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="L239" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L239" s="4"/>
       <c r="M239" s="5" t="s">
         <v>70</v>
       </c>
@@ -14697,48 +14483,46 @@
       </c>
     </row>
     <row r="240" spans="1:22">
-      <c r="A240" s="5" t="s">
+      <c r="A240" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B240" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="C240" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D240" s="5" t="s">
+      <c r="D240" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5"/>
-      <c r="H240" s="5"/>
-      <c r="I240" s="5"/>
-      <c r="J240" s="5" t="s">
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K240" s="5"/>
-      <c r="L240" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M240" s="5" t="s">
+      <c r="K240" s="2"/>
+      <c r="L240" s="4"/>
+      <c r="M240" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N240" s="5" t="s">
+      <c r="N240" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O240" s="5" t="s">
+      <c r="O240" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P240" s="5"/>
-      <c r="Q240" s="5"/>
-      <c r="R240" s="5"/>
-      <c r="S240" s="5"/>
-      <c r="T240" s="5"/>
-      <c r="U240" s="5" t="s">
+      <c r="P240" s="2"/>
+      <c r="Q240" s="2"/>
+      <c r="R240" s="2"/>
+      <c r="S240" s="2"/>
+      <c r="T240" s="2"/>
+      <c r="U240" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V240" s="5"/>
+      <c r="V240" s="2"/>
     </row>
     <row r="241" spans="1:22">
       <c r="A241" s="5" t="s">
@@ -14768,9 +14552,7 @@
         <v>359</v>
       </c>
       <c r="K241" s="5"/>
-      <c r="L241" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L241" s="4"/>
       <c r="M241" s="5" t="s">
         <v>71</v>
       </c>
@@ -14824,9 +14606,7 @@
       <c r="K242" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="L242" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L242" s="4"/>
       <c r="M242" s="5" t="s">
         <v>71</v>
       </c>
@@ -14853,44 +14633,42 @@
       </c>
     </row>
     <row r="243" spans="1:22">
-      <c r="A243" s="5" t="s">
+      <c r="A243" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="B243" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C243" s="5"/>
-      <c r="D243" s="5" t="s">
+      <c r="C243" s="2"/>
+      <c r="D243" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E243" s="5"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="5"/>
-      <c r="H243" s="5"/>
-      <c r="I243" s="5"/>
-      <c r="J243" s="5" t="s">
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="K243" s="5"/>
-      <c r="L243" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M243" s="5" t="s">
+      <c r="K243" s="2"/>
+      <c r="L243" s="4"/>
+      <c r="M243" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N243" s="5"/>
-      <c r="O243" s="5" t="s">
+      <c r="N243" s="2"/>
+      <c r="O243" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P243" s="5"/>
-      <c r="Q243" s="5"/>
-      <c r="R243" s="5"/>
-      <c r="S243" s="5"/>
-      <c r="T243" s="5"/>
-      <c r="U243" s="5" t="s">
+      <c r="P243" s="2"/>
+      <c r="Q243" s="2"/>
+      <c r="R243" s="2"/>
+      <c r="S243" s="2"/>
+      <c r="T243" s="2"/>
+      <c r="U243" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="V243" s="5"/>
+      <c r="V243" s="2"/>
     </row>
     <row r="244" spans="1:22">
       <c r="A244" s="5" t="s">
@@ -14916,9 +14694,7 @@
         <v>359</v>
       </c>
       <c r="K244" s="5"/>
-      <c r="L244" s="7" t="s">
-        <v>424</v>
-      </c>
+      <c r="L244" s="4"/>
       <c r="M244" s="5" t="s">
         <v>72</v>
       </c>

--- a/data/output/FV2304_FV2210/INVOIC/31002.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31002.xlsx
@@ -2188,7 +2188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2211,6 +2211,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2219,6 +2222,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2659,7 +2665,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2995,7 +3001,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3229,7 +3235,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -3417,7 +3423,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3607,7 +3613,7 @@
         <v>395</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3795,7 +3801,7 @@
         <v>395</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3981,7 +3987,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -4379,7 +4385,7 @@
         <v>397</v>
       </c>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2"/>
@@ -4521,7 +4527,7 @@
         <v>398</v>
       </c>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N41" s="2"/>
@@ -5013,7 +5019,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5163,7 +5169,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5309,7 +5315,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5509,7 +5515,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5659,7 +5665,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6317,22 +6323,22 @@
       <c r="B77" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8" t="s">
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="K77" s="8"/>
-      <c r="L77" s="9" t="s">
+      <c r="K77" s="9"/>
+      <c r="L77" s="10" t="s">
         <v>425</v>
       </c>
       <c r="M77" s="5"/>
@@ -6350,31 +6356,31 @@
       <c r="A78" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8" t="s">
+      <c r="F78" s="9"/>
+      <c r="G78" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8" t="s">
+      <c r="H78" s="9"/>
+      <c r="I78" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="J78" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="K78" s="8"/>
-      <c r="L78" s="9" t="s">
+      <c r="J78" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="K78" s="9"/>
+      <c r="L78" s="10" t="s">
         <v>425</v>
       </c>
       <c r="M78" s="5"/>
@@ -6392,33 +6398,33 @@
       <c r="A79" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8" t="s">
+      <c r="F79" s="9"/>
+      <c r="G79" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8" t="s">
+      <c r="H79" s="9"/>
+      <c r="I79" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="K79" s="8" t="s">
+      <c r="K79" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="L79" s="9" t="s">
+      <c r="L79" s="10" t="s">
         <v>425</v>
       </c>
       <c r="M79" s="5"/>
@@ -6436,29 +6442,29 @@
       <c r="A80" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8" t="s">
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="J80" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="K80" s="8"/>
-      <c r="L80" s="9" t="s">
+      <c r="J80" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="K80" s="9"/>
+      <c r="L80" s="10" t="s">
         <v>425</v>
       </c>
       <c r="M80" s="5"/>
@@ -6486,27 +6492,27 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="10" t="s">
+      <c r="L81" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="M81" s="11" t="s">
+      <c r="M81" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="N81" s="11" t="s">
+      <c r="N81" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O81" s="11" t="s">
+      <c r="O81" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11" t="s">
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="V81" s="11"/>
+      <c r="V81" s="13"/>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="5" t="s">
@@ -6522,33 +6528,33 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="10" t="s">
+      <c r="L82" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="M82" s="11" t="s">
+      <c r="M82" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="N82" s="11" t="s">
+      <c r="N82" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O82" s="11" t="s">
+      <c r="O82" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P82" s="11" t="s">
+      <c r="P82" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11" t="s">
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11" t="s">
+      <c r="S82" s="13"/>
+      <c r="T82" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="U82" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="V82" s="11"/>
+      <c r="U82" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="V82" s="13"/>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="5" t="s">
@@ -6564,33 +6570,33 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="10" t="s">
+      <c r="L83" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="M83" s="11" t="s">
+      <c r="M83" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="N83" s="11" t="s">
+      <c r="N83" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O83" s="11" t="s">
+      <c r="O83" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P83" s="11" t="s">
+      <c r="P83" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11" t="s">
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11" t="s">
+      <c r="S83" s="13"/>
+      <c r="T83" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="U83" s="11" t="s">
+      <c r="U83" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="V83" s="11" t="s">
+      <c r="V83" s="13" t="s">
         <v>402</v>
       </c>
     </row>
@@ -6608,31 +6614,31 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="10" t="s">
+      <c r="L84" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="M84" s="11" t="s">
+      <c r="M84" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="N84" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O84" s="11" t="s">
+      <c r="O84" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P84" s="11" t="s">
+      <c r="P84" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11" t="s">
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="U84" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="V84" s="11"/>
+      <c r="U84" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="V84" s="13"/>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="2" t="s">
@@ -6657,7 +6663,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6803,7 +6809,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7165,7 +7171,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7823,22 +7829,22 @@
       <c r="B108" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8" t="s">
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="K108" s="8"/>
-      <c r="L108" s="9" t="s">
+      <c r="K108" s="9"/>
+      <c r="L108" s="10" t="s">
         <v>425</v>
       </c>
       <c r="M108" s="5"/>
@@ -7856,31 +7862,31 @@
       <c r="A109" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8" t="s">
+      <c r="F109" s="9"/>
+      <c r="G109" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8" t="s">
+      <c r="H109" s="9"/>
+      <c r="I109" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="J109" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="K109" s="8"/>
-      <c r="L109" s="9" t="s">
+      <c r="J109" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="K109" s="9"/>
+      <c r="L109" s="10" t="s">
         <v>425</v>
       </c>
       <c r="M109" s="5"/>
@@ -7898,33 +7904,33 @@
       <c r="A110" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8" t="s">
+      <c r="F110" s="9"/>
+      <c r="G110" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8" t="s">
+      <c r="H110" s="9"/>
+      <c r="I110" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="J110" s="8" t="s">
+      <c r="J110" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="K110" s="8" t="s">
+      <c r="K110" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="L110" s="9" t="s">
+      <c r="L110" s="10" t="s">
         <v>425</v>
       </c>
       <c r="M110" s="5"/>
@@ -7942,29 +7948,29 @@
       <c r="A111" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8" t="s">
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="J111" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="K111" s="8"/>
-      <c r="L111" s="9" t="s">
+      <c r="J111" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="K111" s="9"/>
+      <c r="L111" s="10" t="s">
         <v>425</v>
       </c>
       <c r="M111" s="5"/>
@@ -7992,27 +7998,27 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="10" t="s">
+      <c r="L112" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="M112" s="11" t="s">
+      <c r="M112" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="N112" s="11" t="s">
+      <c r="N112" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O112" s="11" t="s">
+      <c r="O112" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P112" s="11"/>
-      <c r="Q112" s="11"/>
-      <c r="R112" s="11"/>
-      <c r="S112" s="11"/>
-      <c r="T112" s="11"/>
-      <c r="U112" s="11" t="s">
+      <c r="P112" s="13"/>
+      <c r="Q112" s="13"/>
+      <c r="R112" s="13"/>
+      <c r="S112" s="13"/>
+      <c r="T112" s="13"/>
+      <c r="U112" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="V112" s="11"/>
+      <c r="V112" s="13"/>
     </row>
     <row r="113" spans="1:22">
       <c r="A113" s="5" t="s">
@@ -8028,33 +8034,33 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="10" t="s">
+      <c r="L113" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="M113" s="11" t="s">
+      <c r="M113" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="N113" s="11" t="s">
+      <c r="N113" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O113" s="11" t="s">
+      <c r="O113" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P113" s="11" t="s">
+      <c r="P113" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="Q113" s="11"/>
-      <c r="R113" s="11" t="s">
+      <c r="Q113" s="13"/>
+      <c r="R113" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11" t="s">
+      <c r="S113" s="13"/>
+      <c r="T113" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="U113" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="V113" s="11"/>
+      <c r="U113" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="V113" s="13"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="5" t="s">
@@ -8070,33 +8076,33 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
-      <c r="L114" s="10" t="s">
+      <c r="L114" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="M114" s="11" t="s">
+      <c r="M114" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="N114" s="11" t="s">
+      <c r="N114" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O114" s="11" t="s">
+      <c r="O114" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P114" s="11" t="s">
+      <c r="P114" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="Q114" s="11"/>
-      <c r="R114" s="11" t="s">
+      <c r="Q114" s="13"/>
+      <c r="R114" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="S114" s="11"/>
-      <c r="T114" s="11" t="s">
+      <c r="S114" s="13"/>
+      <c r="T114" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="U114" s="11" t="s">
+      <c r="U114" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="V114" s="11" t="s">
+      <c r="V114" s="13" t="s">
         <v>402</v>
       </c>
     </row>
@@ -8114,31 +8120,31 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
-      <c r="L115" s="10" t="s">
+      <c r="L115" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="M115" s="11" t="s">
+      <c r="M115" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="N115" s="11" t="s">
+      <c r="N115" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O115" s="11" t="s">
+      <c r="O115" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P115" s="11" t="s">
+      <c r="P115" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="Q115" s="11"/>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11" t="s">
+      <c r="Q115" s="13"/>
+      <c r="R115" s="13"/>
+      <c r="S115" s="13"/>
+      <c r="T115" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="U115" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="V115" s="11"/>
+      <c r="U115" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="V115" s="13"/>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="2" t="s">
@@ -8163,7 +8169,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8462,31 +8468,31 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
-      <c r="L122" s="10" t="s">
+      <c r="L122" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="M122" s="11" t="s">
+      <c r="M122" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N122" s="11" t="s">
+      <c r="N122" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O122" s="11" t="s">
+      <c r="O122" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P122" s="11" t="s">
+      <c r="P122" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q122" s="11"/>
-      <c r="R122" s="11"/>
-      <c r="S122" s="11"/>
-      <c r="T122" s="11" t="s">
+      <c r="Q122" s="13"/>
+      <c r="R122" s="13"/>
+      <c r="S122" s="13"/>
+      <c r="T122" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="U122" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="V122" s="11"/>
+      <c r="U122" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="V122" s="13"/>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="2" t="s">
@@ -8511,7 +8517,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8661,7 +8667,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8865,7 +8871,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8961,7 +8967,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9167,7 +9173,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -9431,7 +9437,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9863,7 +9869,7 @@
         <v>411</v>
       </c>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -10187,7 +10193,7 @@
         <v>414</v>
       </c>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10391,7 +10397,7 @@
         <v>414</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10593,7 +10599,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10743,7 +10749,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10893,7 +10899,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11213,7 +11219,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -11579,7 +11585,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11783,7 +11789,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -11933,7 +11939,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12083,7 +12089,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12233,7 +12239,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -12495,7 +12501,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -12643,7 +12649,7 @@
       </c>
       <c r="K203" s="2"/>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N203" s="2"/>
@@ -12733,7 +12739,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -12883,7 +12889,7 @@
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -13033,7 +13039,7 @@
       </c>
       <c r="K211" s="2"/>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -13179,7 +13185,7 @@
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -13379,7 +13385,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -13529,7 +13535,7 @@
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -13679,7 +13685,7 @@
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -14047,7 +14053,7 @@
         <v>423</v>
       </c>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -14177,23 +14183,23 @@
       </c>
     </row>
     <row r="234" spans="1:22">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B234" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C234" s="5" t="s">
+      <c r="C234" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D234" s="5" t="s">
+      <c r="D234" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E234" s="5"/>
-      <c r="F234" s="5"/>
-      <c r="G234" s="5"/>
-      <c r="H234" s="5"/>
-      <c r="I234" s="5"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
       <c r="J234" s="6" t="s">
         <v>393</v>
       </c>
@@ -14203,20 +14209,20 @@
       <c r="L234" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="M234" s="5" t="s">
+      <c r="M234" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N234" s="5" t="s">
+      <c r="N234" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O234" s="5" t="s">
+      <c r="O234" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P234" s="5"/>
-      <c r="Q234" s="5"/>
-      <c r="R234" s="5"/>
-      <c r="S234" s="5"/>
-      <c r="T234" s="5"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" s="2"/>
+      <c r="R234" s="2"/>
+      <c r="S234" s="2"/>
+      <c r="T234" s="2"/>
       <c r="U234" s="6" t="s">
         <v>441</v>
       </c>
@@ -14355,7 +14361,7 @@
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -14505,7 +14511,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -14653,7 +14659,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N243" s="2"/>
